--- a/agreement/meetings.xlsx
+++ b/agreement/meetings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\agreement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016CE3D-46B7-449F-8DCF-15C5A0584D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1273E923-61C8-4B2E-AB88-1B074F5CF04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>ma, se, cl, ce</t>
+  </si>
+  <si>
+    <t>Went through final report together</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,7 +641,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -651,60 +654,22 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
+      <c r="B12" s="6">
+        <v>45669</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
